--- a/records/processing/Name_ID.xlsx
+++ b/records/processing/Name_ID.xlsx
@@ -1,54 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkess\OneDrive\Documents\CWRU\Macro\Python\MacroCitizenScience\records\manifests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NameID_manifest" sheetId="1" r:id="rId1"/>
+    <sheet name="NameID_manifest" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>file_name</t>
-  </si>
-  <si>
-    <t>google_drive_id</t>
-  </si>
-  <si>
-    <t>1QcrcJSJCw-ivIH9Dn1AdGSptPerMEpYy</t>
-  </si>
-  <si>
-    <t>IMG_3070 - Copyjpeg</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -347,33 +385,3897 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col width="9.08984375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.08984375" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>file_name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>google_drive_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>IMG_3070 - Copyjpeg</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1QcrcJSJCw-ivIH9Dn1AdGSptPerMEpYy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1caWAZZECJQuV7Upp9of-RRjlmqKeiCLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1vShEUIDe7gEq-xTr_QsqqU4Ybdhy-2NZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>IMG_3091HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1KVZWlMal5Cf5folfuunMFjfzrASXirnb</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IMG_3091VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1UDwV1r-hdJclp-POKGy2w2CMp_f0G0vh</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IMG_3089HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1ZFCYl5_NLyCmS-2h83i5H6yUXJ079crQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IMG_3089HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1RRZXSrZw9hgLzT3HlGASX91Vwd7Tgzqq</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>IMG_3091HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1c7e1wUZbhRrjyHEmIF475ZKOVaWpgCXq</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IMG_3089VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1TMsUAKU2UuegxtHU52MTwd6F3igieeSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>IMG_3088HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1zWYzcC8KZKt-97FHy8aTLTUjqmtLO6VE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IMG_3088VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1ru9aEiIBHW_R6Yqq9N6KJGgAqHFa0SF9</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IMG_3088HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1IgB1p7A2NlnMm1rXj7e8IYxnj5kLlDTp</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IMG_3073VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1XrYSehU6Zm1dh95Pf3-avlbi0nrFyJEx</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IMG_3085VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1NWPynFBVnAaWV0vexI5aaR4y5S6V2bVd</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>IMG_3086VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11D2-X4vx91awlr-zWGAO3OGoB2Piqoxu</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>IMG_3086HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1nAfbyOmYHPwCZphsv7VOwIk0pno6Kon7</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>IMG_3083VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1C2O7tGJRXQ_E4p_YzfRB-6U9q2BstuMX</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>IMG_3083HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1aTvz4eeP8aeOlMQ-kJcv2mgBbcti2aYB</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>IMG_3083HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1qmP4gIZRhsbBPVVBqfivUMlbbd5fQsnP</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IMG_3085HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1816ZPFD2b9C4kgMgNNkCagePEBk4-35a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>IMG_3084HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1ZHrL_SyuBHqVp_cf4stfNelMvUMIqTi1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>IMG_3084VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1zOkEiHyoXFlpQ6QKTANJFdPz_P22AKsS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>IMG_3085HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1yNZR_rT_uBa6fDBDXGHAv2LLEkwqH853</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>IMG_3086HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1hO8Rildl0KH3Qfe99tAcYD59EsPmr1n-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>IMG_3084HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1nPP6qudtJ6btlrb--oxsBEWbeROG94iN</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>IMG_3078VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>18QIqkqBKfBgscsgu09YumPBU2arI2DrY</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>IMG_3080VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1YXSvlf-TKPJOc73TO_9KaquHs8SBEMDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>IMG_3082HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1WcP8LbYznNDzwx-ifFwtW-KtivGrjtJF</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>IMG_3081HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1lik_KkzrXpmPv77BDMUYZDrgqYTGZT8j</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>IMG_3082VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>18C2uQnkl98eUVyEQ51uuJyOKB7ZQTfUj</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>IMG_3080HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1JWgZ1tN1XzbdqHhUbS1mrPcUV3ckLs3Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>IMG_3081VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1Ic2OPWmPWaY4dRwOJ4m0lz6hyqZYPXFq</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>IMG_3082HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1LRfe28v0elFxYx4tsyhgAFWalHJPyben</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>IMG_3080HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1VB7hHvQCTmAkiRJpqya09_BGfIincdUP</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>IMG_3078HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1jVyrcBjw2MRD-bwjNvHvQz5zjpEXh7yE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>IMG_3081HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>12qE3-XwconZD4LhyYWMdu3QdrTv2QmWd</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>IMG_3077HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>11TM_l_4FYAFrO9C8kQ4EAIrZAJU3Wyog</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>IMG_3076HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1CPdmoFjDKhr3FQTiDQR1TE-ehxyg-Zjl</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IMG_3076HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1tthXtsaM7_MiauDjmSU5qiPA_i6kM8a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IMG_3078HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1UWHZWTvzYHw6Cm9hJvAWx5zUclIPNss-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>IMG_3074VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1Gs2bqCB9NE0dAPapAi2RTCzqKuXG-cLJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>IMG_3077VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1ED4UfzDuQxX3Z9wnbqyhJxwMCLFfRKYu</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>IMG_3077HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1Irl5hYL2Hjsp7mMzhQfVILrF4F7xm-Ph</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IMG_3074HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1_i_lLWD4HBZDk3roe_EQM3tqk43itDCq</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>IMG_3075HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1VZHYnmexwhgEWsHpoZKXJRdEx1Ol0sGt</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>IMG_3074HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1GkPePbP8U0M2Byt_-yAJnlz1m3td0vzg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>IMG_3075HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1XVd0wB3rqMlIIyPTNftbmLUVX8JDRBSo</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>IMG_3076VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1ybXRqPx8IKtAdYnsd2SRbjiy4DDi5cPe</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>IMG_3075VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1DHsbg3twEyZg3LMv91GNH_1iyARNqjem</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>IMG_3072HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1LZ-meFQypwQYFmAzoSfO2fOdi_y94tga</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>IMG_3070HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1-EVlQQgg8Eh7dR2ESjUHymh_7GsOxeiV</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>IMG_3070HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1nQDBJ9WqrUpt_O5CzHm-tE4D2xhq3YSU</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>IMG_3070VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1SkWrlotW0pHKZBjRcXViqLXVWqvkj63W</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>IMG_3072HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>17IWZDpMnVvXddc__MKOA3kVTvwKkMAGb</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>IMG_3073HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1boDBCjKxSFJQBNNwu0DKzcUBLlhAppy6</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>IMG_3071HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1Kk1AgVYZxeR7iiT9FTeBf9a1zTaWdXN7</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>IMG_3073HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1ZlXZNkSABjgOpRir3yF-MqBeH6hFVYva</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>IMG_3071HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1ZQu13F3Z-zaxpXFrxF_1U0vNJ5Vcgh0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>IMG_3072VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>16Gu0M9yrcY7o6ikSAc88bnE-BocU7Shq</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>IMG_3071VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1-n2uu9NsTfo4pEJPgX9bLcI1Y7hCGSnr</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>IMG_3078.jpeg</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1J7sylXyzeEZqnt5JafW-WCgITii2uEti</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>IMG_3091.jpeg</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1LGIPMDonVelsNaWaJ3HSOikBbSbtQxep</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>IMG_3089.jpeg</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1E76NkTBoKMNkjz7iFUTGnJb-hkQ-ug-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>IMG_3088.jpeg</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>16EUeqsxajpSOOL4I3wsQ8QFO0yEOSv3c</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>IMG_3086.jpeg</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1RXRdvROq1K0TMpSzyz6WpAta-svPD-ek</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>IMG_3085.jpeg</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1RAHE0w2I6b1S016eMLgXPsZ_bqc5SMm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>IMG_3084.jpeg</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1lnZCKj7-ZdFEzapwcfT5Tpubf0KF-rJy</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>IMG_3083.jpeg</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1YW5VQQmd-aOrGcCB58YqiIn-_f36jvy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>IMG_3082.jpeg</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1_y57Bbwid4sJv5sikYrWjoKDutmTAmnz</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>IMG_3081.jpeg</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1471kvKBcN6BVVK92GBkWBdTMTk4NcJ_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>IMG_3080.jpeg</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1FXlCM8x8WwT3AGiGU1Xzs2YgzmTodh8D</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>IMG_3077.jpeg</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1YghNn-W3xlTTtnf9ocIdIr3Fjl2-P95D</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>IMG_3076.jpeg</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1h0qkndB6D2XRBxw9Qf1fqGkYyGk-m6zi</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>IMG_3075.jpeg</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>12EovDuGVQI3_dag90eQtyqd-ZMHl-fqV</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>IMG_3074.jpeg</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1FUK8wPiHzx5OoMnw3dakTkYfg109mOJp</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>IMG_3073.jpeg</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1TobY6-0ExG1A6REW_NPkADp6JGJ9abe-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>IMG_3070.jpeg</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1_vA5B6od_PPJ8pcmosT6XtV1d3Ir1q8Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>IMG_3072.jpeg</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1L9lro6uJHzSqCH3-Imvopxd33g8mT1-X</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>IMG_3071.jpeg</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1p3jhjyAdJXQkPM09nGcQH18v0SUIaV0a</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1A_Snb6L-O91IEQoels8lT86UKtREWagj</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>IMG_3180HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1nRzBjN-eXxZdO7T-0KWNfqkH_NdJpDxf</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>IMG_3179HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1wUeJmOg6GW6HV5lY5MUj90MnTMzJBsvH</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>IMG_3179VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>13a5FrqELygX8Pr7sQEgdjq_Ks7XAUb9K</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>IMG_3180VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1U9YryvmyWbcbW70YHPv6nwRFKR4IjhEw</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>IMG_3179HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1Bzshv1h2HxhGNog_TD8gqeSIvnz0ZKmr</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>IMG_3180HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>199IRQdVL178uHc2Si7t7PeyVzLdYHKKK</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>IMG_3177HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1N2AmlSMZUGzfzTDazIdQ_UUE6HcZKDFx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>IMG_3178HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1d9BchTwqZ9kop-eoyTvjwVTjgAQzbYhb</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>IMG_3175HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1HkKT-yJroAz1VA57Z7Jvl_tkYi0rIRmn</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>IMG_3177VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1MAeNF3Pu_x05lp_CDjwDUqWJ5sms0EyT</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>IMG_3177HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1-4ZJGv7W07YkqhWGrl70CcRmR1t7QYqh</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>IMG_3175HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1rS1kcQ5hUG0Lh353y_DYHR7mS4OyA6mj</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>IMG_3175VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1qahfq3e-OyX2iyyeWlNSGbsDEWdx09PG</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>IMG_3176HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1ZuYCGr4vK7nODu9xFHe8POz5xt2pKkFy</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>IMG_3176VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1c3csXkkQEod6-khXTpOk8E7w4JuxcZKp</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>IMG_3178VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>12m_jcBe11G4hYMlIZ369tq-SixcCi8-f</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>IMG_3176HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1F0kXPhaqPivXOwMGlOvh4P_UN_PFEj-i</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>IMG_3178HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1-Mzuw9YxDv4_j3jAudUD8_xxdnxpsICu</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>IMG_3174HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1zUZUaR-MHc6Pnbz4OHNyaL48eNKdhsuW</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>IMG_3174HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1Ey_nAPKohQqR7VwLSFEQUNfFzIXFTYuj</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>IMG_3174VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1pJNVH82ZAnq-17KGbXu6_xb34J5M8dBW</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>IMG_3180.jpeg</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1VqVjJtZg9y8_unyIo7t0Gzi4hr4wSr62</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1AZVm_auzj9eKTMkpD4-Jvel01PA8UwMF</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1a2hKEtY42gNtmzhZeX-mFCeJoiv1j6aP</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>IMG_3177.jpeg</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1OfBRiLgG2VrnABfIyYGy1l2VAkSgVulG</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1kWre-e64kALTLgKQ4_g5I1lOVqbL5Aol</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>12dWaxWnEH0A366DRLq3QTnkame-Hmadp</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1Z4HqBh-pn3VTrVzxVYMFHkx65Bp9Cx51</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1caWAZZECJQuV7Upp9of-RRjlmqKeiCLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1vShEUIDe7gEq-xTr_QsqqU4Ybdhy-2NZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>IMG_3091HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1KVZWlMal5Cf5folfuunMFjfzrASXirnb</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>IMG_3091VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1UDwV1r-hdJclp-POKGy2w2CMp_f0G0vh</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>IMG_3089HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1ZFCYl5_NLyCmS-2h83i5H6yUXJ079crQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>IMG_3089HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1RRZXSrZw9hgLzT3HlGASX91Vwd7Tgzqq</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>IMG_3091HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1c7e1wUZbhRrjyHEmIF475ZKOVaWpgCXq</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>IMG_3089VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1TMsUAKU2UuegxtHU52MTwd6F3igieeSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>IMG_3088HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1zWYzcC8KZKt-97FHy8aTLTUjqmtLO6VE</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>IMG_3088VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1ru9aEiIBHW_R6Yqq9N6KJGgAqHFa0SF9</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>IMG_3088HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1IgB1p7A2NlnMm1rXj7e8IYxnj5kLlDTp</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>IMG_3073VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1XrYSehU6Zm1dh95Pf3-avlbi0nrFyJEx</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>IMG_3085VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1NWPynFBVnAaWV0vexI5aaR4y5S6V2bVd</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>IMG_3086VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>11D2-X4vx91awlr-zWGAO3OGoB2Piqoxu</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>IMG_3086HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1nAfbyOmYHPwCZphsv7VOwIk0pno6Kon7</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>IMG_3083VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1C2O7tGJRXQ_E4p_YzfRB-6U9q2BstuMX</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>IMG_3083HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1aTvz4eeP8aeOlMQ-kJcv2mgBbcti2aYB</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>IMG_3083HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1qmP4gIZRhsbBPVVBqfivUMlbbd5fQsnP</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>IMG_3085HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1816ZPFD2b9C4kgMgNNkCagePEBk4-35a</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>IMG_3084HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1ZHrL_SyuBHqVp_cf4stfNelMvUMIqTi1</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>IMG_3084VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1zOkEiHyoXFlpQ6QKTANJFdPz_P22AKsS</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>IMG_3085HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1yNZR_rT_uBa6fDBDXGHAv2LLEkwqH853</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>IMG_3086HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1hO8Rildl0KH3Qfe99tAcYD59EsPmr1n-</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>IMG_3084HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1nPP6qudtJ6btlrb--oxsBEWbeROG94iN</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>IMG_3078VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>18QIqkqBKfBgscsgu09YumPBU2arI2DrY</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>IMG_3080VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1YXSvlf-TKPJOc73TO_9KaquHs8SBEMDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>IMG_3082HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1WcP8LbYznNDzwx-ifFwtW-KtivGrjtJF</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>IMG_3081HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1lik_KkzrXpmPv77BDMUYZDrgqYTGZT8j</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>IMG_3082VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>18C2uQnkl98eUVyEQ51uuJyOKB7ZQTfUj</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>IMG_3080HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1JWgZ1tN1XzbdqHhUbS1mrPcUV3ckLs3Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>IMG_3081VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1Ic2OPWmPWaY4dRwOJ4m0lz6hyqZYPXFq</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>IMG_3082HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1LRfe28v0elFxYx4tsyhgAFWalHJPyben</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>IMG_3080HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1VB7hHvQCTmAkiRJpqya09_BGfIincdUP</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>IMG_3078HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1jVyrcBjw2MRD-bwjNvHvQz5zjpEXh7yE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>IMG_3081HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>12qE3-XwconZD4LhyYWMdu3QdrTv2QmWd</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>IMG_3077HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>11TM_l_4FYAFrO9C8kQ4EAIrZAJU3Wyog</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>IMG_3076HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1CPdmoFjDKhr3FQTiDQR1TE-ehxyg-Zjl</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>IMG_3076HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1tthXtsaM7_MiauDjmSU5qiPA_i6kM8a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>IMG_3078HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1UWHZWTvzYHw6Cm9hJvAWx5zUclIPNss-</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>IMG_3074VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1Gs2bqCB9NE0dAPapAi2RTCzqKuXG-cLJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>IMG_3077VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1ED4UfzDuQxX3Z9wnbqyhJxwMCLFfRKYu</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>IMG_3077HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1Irl5hYL2Hjsp7mMzhQfVILrF4F7xm-Ph</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>IMG_3074HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1_i_lLWD4HBZDk3roe_EQM3tqk43itDCq</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>IMG_3075HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1VZHYnmexwhgEWsHpoZKXJRdEx1Ol0sGt</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>IMG_3074HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1GkPePbP8U0M2Byt_-yAJnlz1m3td0vzg</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>IMG_3075HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1XVd0wB3rqMlIIyPTNftbmLUVX8JDRBSo</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>IMG_3076VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1ybXRqPx8IKtAdYnsd2SRbjiy4DDi5cPe</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>IMG_3075VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1DHsbg3twEyZg3LMv91GNH_1iyARNqjem</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>IMG_3072HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1LZ-meFQypwQYFmAzoSfO2fOdi_y94tga</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>IMG_3070HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1-EVlQQgg8Eh7dR2ESjUHymh_7GsOxeiV</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>IMG_3070HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1nQDBJ9WqrUpt_O5CzHm-tE4D2xhq3YSU</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>IMG_3070VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1SkWrlotW0pHKZBjRcXViqLXVWqvkj63W</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>IMG_3072HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>17IWZDpMnVvXddc__MKOA3kVTvwKkMAGb</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>IMG_3073HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1boDBCjKxSFJQBNNwu0DKzcUBLlhAppy6</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>IMG_3071HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1Kk1AgVYZxeR7iiT9FTeBf9a1zTaWdXN7</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>IMG_3073HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1ZlXZNkSABjgOpRir3yF-MqBeH6hFVYva</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>IMG_3071HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1ZQu13F3Z-zaxpXFrxF_1U0vNJ5Vcgh0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>IMG_3072VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>16Gu0M9yrcY7o6ikSAc88bnE-BocU7Shq</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>IMG_3071VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1-n2uu9NsTfo4pEJPgX9bLcI1Y7hCGSnr</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>IMG_3078.jpeg</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1J7sylXyzeEZqnt5JafW-WCgITii2uEti</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>IMG_3091.jpeg</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1LGIPMDonVelsNaWaJ3HSOikBbSbtQxep</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>IMG_3089.jpeg</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1E76NkTBoKMNkjz7iFUTGnJb-hkQ-ug-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>IMG_3088.jpeg</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>16EUeqsxajpSOOL4I3wsQ8QFO0yEOSv3c</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>IMG_3086.jpeg</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1RXRdvROq1K0TMpSzyz6WpAta-svPD-ek</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>IMG_3085.jpeg</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1RAHE0w2I6b1S016eMLgXPsZ_bqc5SMm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>IMG_3084.jpeg</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>1lnZCKj7-ZdFEzapwcfT5Tpubf0KF-rJy</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>IMG_3083.jpeg</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1YW5VQQmd-aOrGcCB58YqiIn-_f36jvy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>IMG_3082.jpeg</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1_y57Bbwid4sJv5sikYrWjoKDutmTAmnz</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>IMG_3081.jpeg</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1471kvKBcN6BVVK92GBkWBdTMTk4NcJ_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>IMG_3080.jpeg</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1FXlCM8x8WwT3AGiGU1Xzs2YgzmTodh8D</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>IMG_3077.jpeg</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1YghNn-W3xlTTtnf9ocIdIr3Fjl2-P95D</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>IMG_3076.jpeg</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1h0qkndB6D2XRBxw9Qf1fqGkYyGk-m6zi</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>IMG_3075.jpeg</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>12EovDuGVQI3_dag90eQtyqd-ZMHl-fqV</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>IMG_3074.jpeg</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1FUK8wPiHzx5OoMnw3dakTkYfg109mOJp</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>IMG_3073.jpeg</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1TobY6-0ExG1A6REW_NPkADp6JGJ9abe-</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>IMG_3070.jpeg</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1_vA5B6od_PPJ8pcmosT6XtV1d3Ir1q8Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>IMG_3072.jpeg</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1L9lro6uJHzSqCH3-Imvopxd33g8mT1-X</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>IMG_3071.jpeg</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1p3jhjyAdJXQkPM09nGcQH18v0SUIaV0a</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1A_Snb6L-O91IEQoels8lT86UKtREWagj</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>IMG_3180HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1nRzBjN-eXxZdO7T-0KWNfqkH_NdJpDxf</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>IMG_3179HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1wUeJmOg6GW6HV5lY5MUj90MnTMzJBsvH</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>IMG_3179VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>13a5FrqELygX8Pr7sQEgdjq_Ks7XAUb9K</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>IMG_3180VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1U9YryvmyWbcbW70YHPv6nwRFKR4IjhEw</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>IMG_3179HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1Bzshv1h2HxhGNog_TD8gqeSIvnz0ZKmr</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>IMG_3180HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>199IRQdVL178uHc2Si7t7PeyVzLdYHKKK</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>IMG_3177HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1N2AmlSMZUGzfzTDazIdQ_UUE6HcZKDFx</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>IMG_3178HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1d9BchTwqZ9kop-eoyTvjwVTjgAQzbYhb</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>IMG_3175HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1HkKT-yJroAz1VA57Z7Jvl_tkYi0rIRmn</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>IMG_3177VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1MAeNF3Pu_x05lp_CDjwDUqWJ5sms0EyT</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>IMG_3177HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1-4ZJGv7W07YkqhWGrl70CcRmR1t7QYqh</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>IMG_3175HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1rS1kcQ5hUG0Lh353y_DYHR7mS4OyA6mj</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>IMG_3175VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1qahfq3e-OyX2iyyeWlNSGbsDEWdx09PG</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>IMG_3176HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1ZuYCGr4vK7nODu9xFHe8POz5xt2pKkFy</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>IMG_3176VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1c3csXkkQEod6-khXTpOk8E7w4JuxcZKp</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>IMG_3178VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>12m_jcBe11G4hYMlIZ369tq-SixcCi8-f</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>IMG_3176HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1F0kXPhaqPivXOwMGlOvh4P_UN_PFEj-i</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>IMG_3178HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1-Mzuw9YxDv4_j3jAudUD8_xxdnxpsICu</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>IMG_3174HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1zUZUaR-MHc6Pnbz4OHNyaL48eNKdhsuW</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>IMG_3174HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1Ey_nAPKohQqR7VwLSFEQUNfFzIXFTYuj</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>IMG_3174VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1pJNVH82ZAnq-17KGbXu6_xb34J5M8dBW</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>IMG_3180.jpeg</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1VqVjJtZg9y8_unyIo7t0Gzi4hr4wSr62</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1AZVm_auzj9eKTMkpD4-Jvel01PA8UwMF</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1a2hKEtY42gNtmzhZeX-mFCeJoiv1j6aP</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>IMG_3177.jpeg</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1OfBRiLgG2VrnABfIyYGy1l2VAkSgVulG</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1kWre-e64kALTLgKQ4_g5I1lOVqbL5Aol</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>12dWaxWnEH0A366DRLq3QTnkame-Hmadp</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1Z4HqBh-pn3VTrVzxVYMFHkx65Bp9Cx51</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1caWAZZECJQuV7Upp9of-RRjlmqKeiCLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1vShEUIDe7gEq-xTr_QsqqU4Ybdhy-2NZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>IMG_3091HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1KVZWlMal5Cf5folfuunMFjfzrASXirnb</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>IMG_3091VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1UDwV1r-hdJclp-POKGy2w2CMp_f0G0vh</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>IMG_3089HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1ZFCYl5_NLyCmS-2h83i5H6yUXJ079crQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>IMG_3089HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1RRZXSrZw9hgLzT3HlGASX91Vwd7Tgzqq</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>IMG_3091HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1c7e1wUZbhRrjyHEmIF475ZKOVaWpgCXq</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>IMG_3089VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1TMsUAKU2UuegxtHU52MTwd6F3igieeSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>IMG_3088HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1zWYzcC8KZKt-97FHy8aTLTUjqmtLO6VE</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>IMG_3088VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1ru9aEiIBHW_R6Yqq9N6KJGgAqHFa0SF9</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>IMG_3088HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1IgB1p7A2NlnMm1rXj7e8IYxnj5kLlDTp</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>IMG_3073VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1XrYSehU6Zm1dh95Pf3-avlbi0nrFyJEx</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>IMG_3085VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1NWPynFBVnAaWV0vexI5aaR4y5S6V2bVd</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>IMG_3086VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>11D2-X4vx91awlr-zWGAO3OGoB2Piqoxu</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>IMG_3086HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1nAfbyOmYHPwCZphsv7VOwIk0pno6Kon7</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>IMG_3083VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1C2O7tGJRXQ_E4p_YzfRB-6U9q2BstuMX</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>IMG_3083HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1aTvz4eeP8aeOlMQ-kJcv2mgBbcti2aYB</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>IMG_3083HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1qmP4gIZRhsbBPVVBqfivUMlbbd5fQsnP</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>IMG_3085HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1816ZPFD2b9C4kgMgNNkCagePEBk4-35a</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>IMG_3084HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1ZHrL_SyuBHqVp_cf4stfNelMvUMIqTi1</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>IMG_3084VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1zOkEiHyoXFlpQ6QKTANJFdPz_P22AKsS</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>IMG_3085HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1yNZR_rT_uBa6fDBDXGHAv2LLEkwqH853</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>IMG_3086HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1hO8Rildl0KH3Qfe99tAcYD59EsPmr1n-</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>IMG_3084HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1nPP6qudtJ6btlrb--oxsBEWbeROG94iN</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>IMG_3078VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>18QIqkqBKfBgscsgu09YumPBU2arI2DrY</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>IMG_3080VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1YXSvlf-TKPJOc73TO_9KaquHs8SBEMDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>IMG_3082HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1WcP8LbYznNDzwx-ifFwtW-KtivGrjtJF</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>IMG_3081HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1lik_KkzrXpmPv77BDMUYZDrgqYTGZT8j</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>IMG_3082VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>18C2uQnkl98eUVyEQ51uuJyOKB7ZQTfUj</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>IMG_3080HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1JWgZ1tN1XzbdqHhUbS1mrPcUV3ckLs3Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>IMG_3081VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1Ic2OPWmPWaY4dRwOJ4m0lz6hyqZYPXFq</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>IMG_3082HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1LRfe28v0elFxYx4tsyhgAFWalHJPyben</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>IMG_3080HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1VB7hHvQCTmAkiRJpqya09_BGfIincdUP</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>IMG_3078HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1jVyrcBjw2MRD-bwjNvHvQz5zjpEXh7yE</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>IMG_3081HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>12qE3-XwconZD4LhyYWMdu3QdrTv2QmWd</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>IMG_3077HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>11TM_l_4FYAFrO9C8kQ4EAIrZAJU3Wyog</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>IMG_3076HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1CPdmoFjDKhr3FQTiDQR1TE-ehxyg-Zjl</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>IMG_3076HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1tthXtsaM7_MiauDjmSU5qiPA_i6kM8a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>IMG_3078HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1UWHZWTvzYHw6Cm9hJvAWx5zUclIPNss-</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>IMG_3074VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1Gs2bqCB9NE0dAPapAi2RTCzqKuXG-cLJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>IMG_3077VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1ED4UfzDuQxX3Z9wnbqyhJxwMCLFfRKYu</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>IMG_3077HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1Irl5hYL2Hjsp7mMzhQfVILrF4F7xm-Ph</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>IMG_3074HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1_i_lLWD4HBZDk3roe_EQM3tqk43itDCq</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>IMG_3075HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1VZHYnmexwhgEWsHpoZKXJRdEx1Ol0sGt</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>IMG_3074HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1GkPePbP8U0M2Byt_-yAJnlz1m3td0vzg</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>IMG_3075HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1XVd0wB3rqMlIIyPTNftbmLUVX8JDRBSo</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>IMG_3076VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1ybXRqPx8IKtAdYnsd2SRbjiy4DDi5cPe</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>IMG_3075VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1DHsbg3twEyZg3LMv91GNH_1iyARNqjem</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>IMG_3072HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1LZ-meFQypwQYFmAzoSfO2fOdi_y94tga</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>IMG_3070HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1-EVlQQgg8Eh7dR2ESjUHymh_7GsOxeiV</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>IMG_3070HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1nQDBJ9WqrUpt_O5CzHm-tE4D2xhq3YSU</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>IMG_3070VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1SkWrlotW0pHKZBjRcXViqLXVWqvkj63W</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>IMG_3072HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>17IWZDpMnVvXddc__MKOA3kVTvwKkMAGb</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>IMG_3073HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1boDBCjKxSFJQBNNwu0DKzcUBLlhAppy6</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>IMG_3071HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1Kk1AgVYZxeR7iiT9FTeBf9a1zTaWdXN7</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>IMG_3073HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1ZlXZNkSABjgOpRir3yF-MqBeH6hFVYva</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>IMG_3071HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1ZQu13F3Z-zaxpXFrxF_1U0vNJ5Vcgh0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>IMG_3072VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>16Gu0M9yrcY7o6ikSAc88bnE-BocU7Shq</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>IMG_3071VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1-n2uu9NsTfo4pEJPgX9bLcI1Y7hCGSnr</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>IMG_3078.jpeg</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1J7sylXyzeEZqnt5JafW-WCgITii2uEti</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>IMG_3091.jpeg</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1LGIPMDonVelsNaWaJ3HSOikBbSbtQxep</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>IMG_3089.jpeg</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1E76NkTBoKMNkjz7iFUTGnJb-hkQ-ug-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>IMG_3088.jpeg</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>16EUeqsxajpSOOL4I3wsQ8QFO0yEOSv3c</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>IMG_3086.jpeg</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1RXRdvROq1K0TMpSzyz6WpAta-svPD-ek</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>IMG_3085.jpeg</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1RAHE0w2I6b1S016eMLgXPsZ_bqc5SMm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>IMG_3084.jpeg</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1lnZCKj7-ZdFEzapwcfT5Tpubf0KF-rJy</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>IMG_3083.jpeg</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1YW5VQQmd-aOrGcCB58YqiIn-_f36jvy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>IMG_3082.jpeg</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1_y57Bbwid4sJv5sikYrWjoKDutmTAmnz</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>IMG_3081.jpeg</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1471kvKBcN6BVVK92GBkWBdTMTk4NcJ_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>IMG_3080.jpeg</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1FXlCM8x8WwT3AGiGU1Xzs2YgzmTodh8D</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>IMG_3077.jpeg</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1YghNn-W3xlTTtnf9ocIdIr3Fjl2-P95D</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>IMG_3076.jpeg</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1h0qkndB6D2XRBxw9Qf1fqGkYyGk-m6zi</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>IMG_3075.jpeg</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>12EovDuGVQI3_dag90eQtyqd-ZMHl-fqV</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>IMG_3074.jpeg</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1FUK8wPiHzx5OoMnw3dakTkYfg109mOJp</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>IMG_3073.jpeg</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1TobY6-0ExG1A6REW_NPkADp6JGJ9abe-</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>IMG_3070.jpeg</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1_vA5B6od_PPJ8pcmosT6XtV1d3Ir1q8Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>IMG_3072.jpeg</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1L9lro6uJHzSqCH3-Imvopxd33g8mT1-X</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>IMG_3071.jpeg</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1p3jhjyAdJXQkPM09nGcQH18v0SUIaV0a</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1A_Snb6L-O91IEQoels8lT86UKtREWagj</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>IMG_3180HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1nRzBjN-eXxZdO7T-0KWNfqkH_NdJpDxf</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>IMG_3179HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1wUeJmOg6GW6HV5lY5MUj90MnTMzJBsvH</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>IMG_3179VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>13a5FrqELygX8Pr7sQEgdjq_Ks7XAUb9K</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>IMG_3180VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1U9YryvmyWbcbW70YHPv6nwRFKR4IjhEw</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>IMG_3179HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1Bzshv1h2HxhGNog_TD8gqeSIvnz0ZKmr</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>IMG_3180HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>199IRQdVL178uHc2Si7t7PeyVzLdYHKKK</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>IMG_3177HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1N2AmlSMZUGzfzTDazIdQ_UUE6HcZKDFx</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>IMG_3178HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1d9BchTwqZ9kop-eoyTvjwVTjgAQzbYhb</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>IMG_3175HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1HkKT-yJroAz1VA57Z7Jvl_tkYi0rIRmn</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>IMG_3177VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1MAeNF3Pu_x05lp_CDjwDUqWJ5sms0EyT</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>IMG_3177HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1-4ZJGv7W07YkqhWGrl70CcRmR1t7QYqh</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>IMG_3175HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1rS1kcQ5hUG0Lh353y_DYHR7mS4OyA6mj</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>IMG_3175VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1qahfq3e-OyX2iyyeWlNSGbsDEWdx09PG</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>IMG_3176HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1ZuYCGr4vK7nODu9xFHe8POz5xt2pKkFy</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>IMG_3176VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1c3csXkkQEod6-khXTpOk8E7w4JuxcZKp</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>IMG_3178VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>12m_jcBe11G4hYMlIZ369tq-SixcCi8-f</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>IMG_3176HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1F0kXPhaqPivXOwMGlOvh4P_UN_PFEj-i</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>IMG_3178HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1-Mzuw9YxDv4_j3jAudUD8_xxdnxpsICu</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>IMG_3174HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1zUZUaR-MHc6Pnbz4OHNyaL48eNKdhsuW</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>IMG_3174HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1Ey_nAPKohQqR7VwLSFEQUNfFzIXFTYuj</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>IMG_3174VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1pJNVH82ZAnq-17KGbXu6_xb34J5M8dBW</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>IMG_3180.jpeg</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1VqVjJtZg9y8_unyIo7t0Gzi4hr4wSr62</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1AZVm_auzj9eKTMkpD4-Jvel01PA8UwMF</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1a2hKEtY42gNtmzhZeX-mFCeJoiv1j6aP</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>IMG_3177.jpeg</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1OfBRiLgG2VrnABfIyYGy1l2VAkSgVulG</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1kWre-e64kALTLgKQ4_g5I1lOVqbL5Aol</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>12dWaxWnEH0A366DRLq3QTnkame-Hmadp</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1Z4HqBh-pn3VTrVzxVYMFHkx65Bp9Cx51</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/records/processing/Name_ID.xlsx
+++ b/records/processing/Name_ID.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4278,6 +4278,1290 @@
         </is>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1caWAZZECJQuV7Upp9of-RRjlmqKeiCLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1vShEUIDe7gEq-xTr_QsqqU4Ybdhy-2NZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>IMG_3091HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1KVZWlMal5Cf5folfuunMFjfzrASXirnb</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>IMG_3091VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1UDwV1r-hdJclp-POKGy2w2CMp_f0G0vh</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>IMG_3089HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1ZFCYl5_NLyCmS-2h83i5H6yUXJ079crQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>IMG_3089HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1RRZXSrZw9hgLzT3HlGASX91Vwd7Tgzqq</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>IMG_3091HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1c7e1wUZbhRrjyHEmIF475ZKOVaWpgCXq</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>IMG_3089VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1TMsUAKU2UuegxtHU52MTwd6F3igieeSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>IMG_3088HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1zWYzcC8KZKt-97FHy8aTLTUjqmtLO6VE</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>IMG_3088VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1ru9aEiIBHW_R6Yqq9N6KJGgAqHFa0SF9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>IMG_3088HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1IgB1p7A2NlnMm1rXj7e8IYxnj5kLlDTp</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>IMG_3073VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1XrYSehU6Zm1dh95Pf3-avlbi0nrFyJEx</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>IMG_3085VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1NWPynFBVnAaWV0vexI5aaR4y5S6V2bVd</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>IMG_3086VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>11D2-X4vx91awlr-zWGAO3OGoB2Piqoxu</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>IMG_3086HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1nAfbyOmYHPwCZphsv7VOwIk0pno6Kon7</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>IMG_3083VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1C2O7tGJRXQ_E4p_YzfRB-6U9q2BstuMX</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>IMG_3083HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1aTvz4eeP8aeOlMQ-kJcv2mgBbcti2aYB</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>IMG_3083HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1qmP4gIZRhsbBPVVBqfivUMlbbd5fQsnP</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>IMG_3085HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1816ZPFD2b9C4kgMgNNkCagePEBk4-35a</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>IMG_3084HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1ZHrL_SyuBHqVp_cf4stfNelMvUMIqTi1</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>IMG_3084VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1zOkEiHyoXFlpQ6QKTANJFdPz_P22AKsS</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>IMG_3085HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1yNZR_rT_uBa6fDBDXGHAv2LLEkwqH853</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>IMG_3086HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1hO8Rildl0KH3Qfe99tAcYD59EsPmr1n-</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>IMG_3084HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1nPP6qudtJ6btlrb--oxsBEWbeROG94iN</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>IMG_3078VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>18QIqkqBKfBgscsgu09YumPBU2arI2DrY</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>IMG_3080VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1YXSvlf-TKPJOc73TO_9KaquHs8SBEMDT</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>IMG_3082HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1WcP8LbYznNDzwx-ifFwtW-KtivGrjtJF</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>IMG_3081HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1lik_KkzrXpmPv77BDMUYZDrgqYTGZT8j</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>IMG_3082VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>18C2uQnkl98eUVyEQ51uuJyOKB7ZQTfUj</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>IMG_3080HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1JWgZ1tN1XzbdqHhUbS1mrPcUV3ckLs3Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>IMG_3081VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1Ic2OPWmPWaY4dRwOJ4m0lz6hyqZYPXFq</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>IMG_3082HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1LRfe28v0elFxYx4tsyhgAFWalHJPyben</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>IMG_3080HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1VB7hHvQCTmAkiRJpqya09_BGfIincdUP</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>IMG_3078HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1jVyrcBjw2MRD-bwjNvHvQz5zjpEXh7yE</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>IMG_3081HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>12qE3-XwconZD4LhyYWMdu3QdrTv2QmWd</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>IMG_3077HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>11TM_l_4FYAFrO9C8kQ4EAIrZAJU3Wyog</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>IMG_3076HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1CPdmoFjDKhr3FQTiDQR1TE-ehxyg-Zjl</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>IMG_3076HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1tthXtsaM7_MiauDjmSU5qiPA_i6kM8a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>IMG_3078HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1UWHZWTvzYHw6Cm9hJvAWx5zUclIPNss-</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>IMG_3074VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1Gs2bqCB9NE0dAPapAi2RTCzqKuXG-cLJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>IMG_3077VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1ED4UfzDuQxX3Z9wnbqyhJxwMCLFfRKYu</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>IMG_3077HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1Irl5hYL2Hjsp7mMzhQfVILrF4F7xm-Ph</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>IMG_3074HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1_i_lLWD4HBZDk3roe_EQM3tqk43itDCq</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>IMG_3075HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1VZHYnmexwhgEWsHpoZKXJRdEx1Ol0sGt</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>IMG_3074HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1GkPePbP8U0M2Byt_-yAJnlz1m3td0vzg</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>IMG_3075HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1XVd0wB3rqMlIIyPTNftbmLUVX8JDRBSo</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>IMG_3076VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1ybXRqPx8IKtAdYnsd2SRbjiy4DDi5cPe</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>IMG_3075VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1DHsbg3twEyZg3LMv91GNH_1iyARNqjem</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>IMG_3072HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1LZ-meFQypwQYFmAzoSfO2fOdi_y94tga</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>IMG_3070HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1-EVlQQgg8Eh7dR2ESjUHymh_7GsOxeiV</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>IMG_3070HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1nQDBJ9WqrUpt_O5CzHm-tE4D2xhq3YSU</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>IMG_3070VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1SkWrlotW0pHKZBjRcXViqLXVWqvkj63W</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>IMG_3072HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>17IWZDpMnVvXddc__MKOA3kVTvwKkMAGb</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>IMG_3073HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1boDBCjKxSFJQBNNwu0DKzcUBLlhAppy6</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>IMG_3071HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1Kk1AgVYZxeR7iiT9FTeBf9a1zTaWdXN7</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>IMG_3073HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1ZlXZNkSABjgOpRir3yF-MqBeH6hFVYva</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>IMG_3071HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1ZQu13F3Z-zaxpXFrxF_1U0vNJ5Vcgh0B</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>IMG_3072VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>16Gu0M9yrcY7o6ikSAc88bnE-BocU7Shq</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>IMG_3071VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1-n2uu9NsTfo4pEJPgX9bLcI1Y7hCGSnr</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>IMG_3078.jpeg</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1J7sylXyzeEZqnt5JafW-WCgITii2uEti</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>IMG_3091.jpeg</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1LGIPMDonVelsNaWaJ3HSOikBbSbtQxep</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>IMG_3089.jpeg</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1E76NkTBoKMNkjz7iFUTGnJb-hkQ-ug-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>IMG_3088.jpeg</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>16EUeqsxajpSOOL4I3wsQ8QFO0yEOSv3c</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>IMG_3086.jpeg</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1RXRdvROq1K0TMpSzyz6WpAta-svPD-ek</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>IMG_3085.jpeg</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1RAHE0w2I6b1S016eMLgXPsZ_bqc5SMm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>IMG_3084.jpeg</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1lnZCKj7-ZdFEzapwcfT5Tpubf0KF-rJy</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>IMG_3083.jpeg</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1YW5VQQmd-aOrGcCB58YqiIn-_f36jvy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>IMG_3082.jpeg</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1_y57Bbwid4sJv5sikYrWjoKDutmTAmnz</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>IMG_3081.jpeg</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1471kvKBcN6BVVK92GBkWBdTMTk4NcJ_s</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>IMG_3080.jpeg</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1FXlCM8x8WwT3AGiGU1Xzs2YgzmTodh8D</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>IMG_3077.jpeg</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1YghNn-W3xlTTtnf9ocIdIr3Fjl2-P95D</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>IMG_3076.jpeg</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1h0qkndB6D2XRBxw9Qf1fqGkYyGk-m6zi</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>IMG_3075.jpeg</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>12EovDuGVQI3_dag90eQtyqd-ZMHl-fqV</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>IMG_3074.jpeg</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1FUK8wPiHzx5OoMnw3dakTkYfg109mOJp</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>IMG_3073.jpeg</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1TobY6-0ExG1A6REW_NPkADp6JGJ9abe-</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>IMG_3070.jpeg</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1_vA5B6od_PPJ8pcmosT6XtV1d3Ir1q8Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>IMG_3072.jpeg</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1L9lro6uJHzSqCH3-Imvopxd33g8mT1-X</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>IMG_3071.jpeg</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1p3jhjyAdJXQkPM09nGcQH18v0SUIaV0a</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>1A_Snb6L-O91IEQoels8lT86UKtREWagj</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>IMG_3180HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>1nRzBjN-eXxZdO7T-0KWNfqkH_NdJpDxf</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>IMG_3179HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>1wUeJmOg6GW6HV5lY5MUj90MnTMzJBsvH</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>IMG_3179VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>13a5FrqELygX8Pr7sQEgdjq_Ks7XAUb9K</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>IMG_3180VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>1U9YryvmyWbcbW70YHPv6nwRFKR4IjhEw</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>IMG_3179HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>1Bzshv1h2HxhGNog_TD8gqeSIvnz0ZKmr</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>IMG_3180HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>199IRQdVL178uHc2Si7t7PeyVzLdYHKKK</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>IMG_3177HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>1N2AmlSMZUGzfzTDazIdQ_UUE6HcZKDFx</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>IMG_3178HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>1d9BchTwqZ9kop-eoyTvjwVTjgAQzbYhb</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>IMG_3175HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>1HkKT-yJroAz1VA57Z7Jvl_tkYi0rIRmn</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>IMG_3177VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>1MAeNF3Pu_x05lp_CDjwDUqWJ5sms0EyT</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>IMG_3177HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>1-4ZJGv7W07YkqhWGrl70CcRmR1t7QYqh</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>IMG_3175HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>1rS1kcQ5hUG0Lh353y_DYHR7mS4OyA6mj</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>IMG_3175VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>1qahfq3e-OyX2iyyeWlNSGbsDEWdx09PG</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>IMG_3176HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>1ZuYCGr4vK7nODu9xFHe8POz5xt2pKkFy</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>IMG_3176VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>1c3csXkkQEod6-khXTpOk8E7w4JuxcZKp</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>IMG_3178VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>12m_jcBe11G4hYMlIZ369tq-SixcCi8-f</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>IMG_3176HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>1F0kXPhaqPivXOwMGlOvh4P_UN_PFEj-i</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>IMG_3178HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>1-Mzuw9YxDv4_j3jAudUD8_xxdnxpsICu</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>IMG_3174HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1zUZUaR-MHc6Pnbz4OHNyaL48eNKdhsuW</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>IMG_3174HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>1Ey_nAPKohQqR7VwLSFEQUNfFzIXFTYuj</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>IMG_3174VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>1pJNVH82ZAnq-17KGbXu6_xb34J5M8dBW</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>IMG_3180.jpeg</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>1VqVjJtZg9y8_unyIo7t0Gzi4hr4wSr62</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>1AZVm_auzj9eKTMkpD4-Jvel01PA8UwMF</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>1a2hKEtY42gNtmzhZeX-mFCeJoiv1j6aP</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>IMG_3177.jpeg</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>1OfBRiLgG2VrnABfIyYGy1l2VAkSgVulG</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>1kWre-e64kALTLgKQ4_g5I1lOVqbL5Aol</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>12dWaxWnEH0A366DRLq3QTnkame-Hmadp</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>1Z4HqBh-pn3VTrVzxVYMFHkx65Bp9Cx51</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
